--- a/Code/Results/Cases/Case_0_110/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_110/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>11.18654378138094</v>
+        <v>9.745093707308749</v>
       </c>
       <c r="D2">
-        <v>12.23377831081199</v>
+        <v>6.124777040331003</v>
       </c>
       <c r="E2">
-        <v>5.2189801709852</v>
+        <v>10.47817040029796</v>
       </c>
       <c r="F2">
-        <v>106.8969164018931</v>
+        <v>75.77093397152859</v>
       </c>
       <c r="G2">
-        <v>1.767769353880434</v>
+        <v>3.774403024172508</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>77.21400843636226</v>
+        <v>54.37071703432033</v>
       </c>
       <c r="J2">
-        <v>7.99338886337993</v>
+        <v>11.11286387404048</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682373</v>
+        <v>18.99769123883691</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10.07799644815181</v>
+        <v>9.662239324252782</v>
       </c>
       <c r="D3">
-        <v>10.93561802152969</v>
+        <v>5.76900483286826</v>
       </c>
       <c r="E3">
-        <v>5.311056263342322</v>
+        <v>10.52228707718997</v>
       </c>
       <c r="F3">
-        <v>95.79975688449358</v>
+        <v>74.37906829206425</v>
       </c>
       <c r="G3">
-        <v>1.843528224886669</v>
+        <v>3.787280141940651</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>69.06312779616987</v>
+        <v>53.38159787535967</v>
       </c>
       <c r="J3">
-        <v>7.546205592333371</v>
+        <v>11.13198291962224</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.2256181799734</v>
+        <v>18.40031508502705</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.496876604309112</v>
+        <v>9.615180164468841</v>
       </c>
       <c r="D4">
-        <v>10.20445435764299</v>
+        <v>5.539558445959933</v>
       </c>
       <c r="E4">
-        <v>5.3694839867613</v>
+        <v>10.55103391700284</v>
       </c>
       <c r="F4">
-        <v>89.59699031945405</v>
+        <v>73.54854553398405</v>
       </c>
       <c r="G4">
-        <v>1.884032265334675</v>
+        <v>3.795522470187224</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>64.49142198618102</v>
+        <v>52.79172146937709</v>
       </c>
       <c r="J4">
-        <v>7.319747981778643</v>
+        <v>11.14684874608549</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662918</v>
+        <v>18.02485520896364</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.27109881956271</v>
+        <v>9.59696423617272</v>
       </c>
       <c r="D5">
-        <v>9.914553155014737</v>
+        <v>5.443309887458183</v>
       </c>
       <c r="E5">
-        <v>5.393864389550015</v>
+        <v>10.56316697648182</v>
       </c>
       <c r="F5">
-        <v>87.15203353462189</v>
+        <v>73.21649748359667</v>
       </c>
       <c r="G5">
-        <v>1.899663072012102</v>
+        <v>3.798966700084902</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>62.68548737708631</v>
+        <v>52.55596770579626</v>
       </c>
       <c r="J5">
-        <v>7.235600856262978</v>
+        <v>11.15368510103598</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>17.86990355188116</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.23413890502712</v>
+        <v>9.593997563737069</v>
       </c>
       <c r="D6">
-        <v>9.866743497032271</v>
+        <v>5.427162660590583</v>
       </c>
       <c r="E6">
-        <v>5.397948966789431</v>
+        <v>10.56520697615934</v>
       </c>
       <c r="F6">
-        <v>86.74974353726402</v>
+        <v>73.16175713676689</v>
       </c>
       <c r="G6">
-        <v>1.902217578599202</v>
+        <v>3.799543799263728</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>62.3881056503554</v>
+        <v>52.51710711100159</v>
       </c>
       <c r="J6">
-        <v>7.22204564325317</v>
+        <v>11.1548670582408</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962175</v>
+        <v>17.84406337566596</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.493793547556612</v>
+        <v>9.614930605449686</v>
       </c>
       <c r="D7">
-        <v>10.2005196119329</v>
+        <v>5.538271497447022</v>
       </c>
       <c r="E7">
-        <v>5.369810394537359</v>
+        <v>10.55119585147796</v>
       </c>
       <c r="F7">
-        <v>89.56374433461519</v>
+        <v>73.54404107970964</v>
       </c>
       <c r="G7">
-        <v>1.884246042636555</v>
+        <v>3.795568573137277</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>64.46688120231588</v>
+        <v>52.78852297507564</v>
       </c>
       <c r="J7">
-        <v>7.318583742500927</v>
+        <v>11.14693780210613</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062623</v>
+        <v>18.02277304766463</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.75481521281722</v>
+        <v>9.715735755953538</v>
       </c>
       <c r="D8">
-        <v>11.76509413696804</v>
+        <v>6.004399106183196</v>
       </c>
       <c r="E8">
-        <v>5.250417577110112</v>
+        <v>10.49303829095123</v>
       </c>
       <c r="F8">
-        <v>102.881991569845</v>
+        <v>75.28622669179275</v>
       </c>
       <c r="G8">
-        <v>1.795690683276859</v>
+        <v>3.778773980752447</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>74.26861657844447</v>
+        <v>54.02619363876915</v>
       </c>
       <c r="J8">
-        <v>7.825786753598623</v>
+        <v>11.11880247665376</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>18.79364780656866</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.75481521281722</v>
+        <v>9.943504903071441</v>
       </c>
       <c r="D9">
-        <v>11.76509413696804</v>
+        <v>6.830715326529465</v>
       </c>
       <c r="E9">
-        <v>5.250417577110112</v>
+        <v>10.39209592422991</v>
       </c>
       <c r="F9">
-        <v>102.881991569845</v>
+        <v>78.87839180131468</v>
       </c>
       <c r="G9">
-        <v>1.795690683276859</v>
+        <v>3.748457367797224</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>74.26861657844447</v>
+        <v>56.5808626569812</v>
       </c>
       <c r="J9">
-        <v>7.825786753598623</v>
+        <v>11.08879105377142</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>25.1395913014106</v>
+        <v>20.2273683202997</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.75481521281722</v>
+        <v>10.12886571465549</v>
       </c>
       <c r="D10">
-        <v>11.76509413696804</v>
+        <v>7.384102873869701</v>
       </c>
       <c r="E10">
-        <v>5.250417577110112</v>
+        <v>10.32584071680569</v>
       </c>
       <c r="F10">
-        <v>102.881991569845</v>
+        <v>81.60393589491733</v>
       </c>
       <c r="G10">
-        <v>1.795690683276859</v>
+        <v>3.727712943164527</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>74.26861657844447</v>
+        <v>58.5209264155304</v>
       </c>
       <c r="J10">
-        <v>7.825786753598623</v>
+        <v>11.08257185777956</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>25.1395913014106</v>
+        <v>21.22223697909767</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.75481521281722</v>
+        <v>10.21700737938564</v>
       </c>
       <c r="D11">
-        <v>11.76509413696804</v>
+        <v>7.62424353037199</v>
       </c>
       <c r="E11">
-        <v>5.250417577110112</v>
+        <v>10.29739916912431</v>
       </c>
       <c r="F11">
-        <v>102.881991569845</v>
+        <v>82.85829445254997</v>
       </c>
       <c r="G11">
-        <v>1.795690683276859</v>
+        <v>3.718592747784306</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>74.26861657844447</v>
+        <v>59.41417038772866</v>
       </c>
       <c r="J11">
-        <v>7.825786753598623</v>
+        <v>11.08328661394532</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>25.1395913014106</v>
+        <v>21.66018057919901</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.75481521281722</v>
+        <v>10.25092376370649</v>
       </c>
       <c r="D12">
-        <v>11.76509413696804</v>
+        <v>7.713519218974925</v>
       </c>
       <c r="E12">
-        <v>5.250417577110112</v>
+        <v>10.28687196960488</v>
       </c>
       <c r="F12">
-        <v>102.881991569845</v>
+        <v>83.33502525232898</v>
       </c>
       <c r="G12">
-        <v>1.795690683276859</v>
+        <v>3.715183415764704</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>74.26861657844447</v>
+        <v>59.75371171721853</v>
       </c>
       <c r="J12">
-        <v>7.825786753598623</v>
+        <v>11.08407565828177</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>25.1395913014106</v>
+        <v>21.82377585681918</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.75481521281722</v>
+        <v>10.24359545973009</v>
       </c>
       <c r="D13">
-        <v>11.76509413696804</v>
+        <v>7.694365796143889</v>
       </c>
       <c r="E13">
-        <v>5.250417577110112</v>
+        <v>10.2891284022323</v>
       </c>
       <c r="F13">
-        <v>102.881991569845</v>
+        <v>83.2322811057181</v>
       </c>
       <c r="G13">
-        <v>1.795690683276859</v>
+        <v>3.715915726828824</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>74.26861657844447</v>
+        <v>59.6805319151813</v>
       </c>
       <c r="J13">
-        <v>7.825786753598623</v>
+        <v>11.08388252751271</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>25.1395913014106</v>
+        <v>21.78864458690801</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.75481521281722</v>
+        <v>10.21978695861495</v>
       </c>
       <c r="D14">
-        <v>11.76509413696804</v>
+        <v>7.631621517645357</v>
       </c>
       <c r="E14">
-        <v>5.250417577110112</v>
+        <v>10.29652822697153</v>
       </c>
       <c r="F14">
-        <v>102.881991569845</v>
+        <v>82.89748261390359</v>
       </c>
       <c r="G14">
-        <v>1.795690683276859</v>
+        <v>3.71831137961703</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>74.26861657844447</v>
+        <v>59.44208020338321</v>
       </c>
       <c r="J14">
-        <v>7.825786753598623</v>
+        <v>11.08334108934003</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>25.1395913014106</v>
+        <v>21.67368539489599</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.75481521281722</v>
+        <v>10.20527344775341</v>
       </c>
       <c r="D15">
-        <v>11.76509413696804</v>
+        <v>7.592972880267864</v>
       </c>
       <c r="E15">
-        <v>5.250417577110112</v>
+        <v>10.30109244287018</v>
       </c>
       <c r="F15">
-        <v>102.881991569845</v>
+        <v>82.69262434288723</v>
       </c>
       <c r="G15">
-        <v>1.795690683276859</v>
+        <v>3.719784516354551</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>74.26861657844447</v>
+        <v>59.29618234928711</v>
       </c>
       <c r="J15">
-        <v>7.825786753598623</v>
+        <v>11.0830772135281</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>25.1395913014106</v>
+        <v>21.60297336126124</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.75481521281722</v>
+        <v>10.12318145754867</v>
       </c>
       <c r="D16">
-        <v>11.76509413696804</v>
+        <v>7.368176296239238</v>
       </c>
       <c r="E16">
-        <v>5.250417577110112</v>
+        <v>10.32773350864035</v>
       </c>
       <c r="F16">
-        <v>102.881991569845</v>
+        <v>81.52222181430437</v>
       </c>
       <c r="G16">
-        <v>1.795690683276859</v>
+        <v>3.728315234998063</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>74.26861657844447</v>
+        <v>58.4627445352206</v>
       </c>
       <c r="J16">
-        <v>7.825786753598623</v>
+        <v>11.08259720683149</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>25.1395913014106</v>
+        <v>21.19330956972086</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.75481521281722</v>
+        <v>10.07379202452421</v>
       </c>
       <c r="D17">
-        <v>11.76509413696804</v>
+        <v>7.227304585281777</v>
       </c>
       <c r="E17">
-        <v>5.250417577110112</v>
+        <v>10.34451104346166</v>
       </c>
       <c r="F17">
-        <v>102.881991569845</v>
+        <v>80.80767460002819</v>
       </c>
       <c r="G17">
-        <v>1.795690683276859</v>
+        <v>3.733628769281608</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>74.26861657844447</v>
+        <v>57.9540167355289</v>
       </c>
       <c r="J17">
-        <v>7.825786753598623</v>
+        <v>11.08321662796131</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>25.1395913014106</v>
+        <v>20.93814219015166</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.75481521281722</v>
+        <v>10.04574476611135</v>
       </c>
       <c r="D18">
-        <v>11.76509413696804</v>
+        <v>7.145186572750438</v>
       </c>
       <c r="E18">
-        <v>5.250417577110112</v>
+        <v>10.35432095973908</v>
       </c>
       <c r="F18">
-        <v>102.881991569845</v>
+        <v>80.39807039886311</v>
       </c>
       <c r="G18">
-        <v>1.795690683276859</v>
+        <v>3.736714845110408</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>74.26861657844447</v>
+        <v>57.66243130605893</v>
       </c>
       <c r="J18">
-        <v>7.825786753598623</v>
+        <v>11.08390594141789</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>25.1395913014106</v>
+        <v>20.79000725568141</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.75481521281722</v>
+        <v>10.03631061855221</v>
       </c>
       <c r="D19">
-        <v>11.76509413696804</v>
+        <v>7.117195041741789</v>
       </c>
       <c r="E19">
-        <v>5.250417577110112</v>
+        <v>10.35766993268902</v>
       </c>
       <c r="F19">
-        <v>102.881991569845</v>
+        <v>80.25963423489361</v>
       </c>
       <c r="G19">
-        <v>1.795690683276859</v>
+        <v>3.73776490452839</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>74.26861657844447</v>
+        <v>57.5638886940142</v>
       </c>
       <c r="J19">
-        <v>7.825786753598623</v>
+        <v>11.08419626508325</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>25.1395913014106</v>
+        <v>20.73962067985785</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.75481521281722</v>
+        <v>10.07901240303133</v>
       </c>
       <c r="D20">
-        <v>11.76509413696804</v>
+        <v>7.242413627574952</v>
       </c>
       <c r="E20">
-        <v>5.250417577110112</v>
+        <v>10.34270850373925</v>
       </c>
       <c r="F20">
-        <v>102.881991569845</v>
+        <v>80.88359868897817</v>
       </c>
       <c r="G20">
-        <v>1.795690683276859</v>
+        <v>3.733060051668449</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>74.26861657844447</v>
+        <v>58.0080678169436</v>
       </c>
       <c r="J20">
-        <v>7.825786753598623</v>
+        <v>11.08311615804416</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>25.1395913014106</v>
+        <v>20.96544799483449</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.75481521281722</v>
+        <v>10.226765548079</v>
       </c>
       <c r="D21">
-        <v>11.76509413696804</v>
+        <v>7.650096020461527</v>
       </c>
       <c r="E21">
-        <v>5.250417577110112</v>
+        <v>10.29434813381769</v>
       </c>
       <c r="F21">
-        <v>102.881991569845</v>
+        <v>82.99577674468534</v>
       </c>
       <c r="G21">
-        <v>1.795690683276859</v>
+        <v>3.717606526414634</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>74.26861657844447</v>
+        <v>59.51208618775472</v>
       </c>
       <c r="J21">
-        <v>7.825786753598623</v>
+        <v>11.08348598370266</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>25.1395913014106</v>
+        <v>21.70751365554064</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.75481521281722</v>
+        <v>10.32646758553822</v>
       </c>
       <c r="D22">
-        <v>11.76509413696804</v>
+        <v>7.906867710480276</v>
       </c>
       <c r="E22">
-        <v>5.250417577110112</v>
+        <v>10.26415765420291</v>
       </c>
       <c r="F22">
-        <v>102.881991569845</v>
+        <v>84.38615542547315</v>
       </c>
       <c r="G22">
-        <v>1.795690683276859</v>
+        <v>3.707764291430614</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>74.26861657844447</v>
+        <v>60.50245742614527</v>
       </c>
       <c r="J22">
-        <v>7.825786753598623</v>
+        <v>11.08675335959428</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>25.1395913014106</v>
+        <v>22.17935961385674</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.75481521281722</v>
+        <v>10.27297126560183</v>
       </c>
       <c r="D23">
-        <v>11.76509413696804</v>
+        <v>7.770705604535523</v>
       </c>
       <c r="E23">
-        <v>5.250417577110112</v>
+        <v>10.28014173241119</v>
       </c>
       <c r="F23">
-        <v>102.881991569845</v>
+        <v>83.64328534425002</v>
       </c>
       <c r="G23">
-        <v>1.795690683276859</v>
+        <v>3.712994132643005</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>74.26861657844447</v>
+        <v>59.97327883111036</v>
       </c>
       <c r="J23">
-        <v>7.825786753598623</v>
+        <v>11.08472972401755</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>25.1395913014106</v>
+        <v>21.92877110911181</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.75481521281722</v>
+        <v>10.07665118710929</v>
       </c>
       <c r="D24">
-        <v>11.76509413696804</v>
+        <v>7.235586346631654</v>
       </c>
       <c r="E24">
-        <v>5.250417577110112</v>
+        <v>10.34352292013543</v>
       </c>
       <c r="F24">
-        <v>102.881991569845</v>
+        <v>80.84926964834652</v>
       </c>
       <c r="G24">
-        <v>1.795690683276859</v>
+        <v>3.733317071459187</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>74.26861657844447</v>
+        <v>57.98362853505486</v>
       </c>
       <c r="J24">
-        <v>7.825786753598623</v>
+        <v>11.08316054331291</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>25.1395913014106</v>
+        <v>20.95310750188673</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.75481521281722</v>
+        <v>9.878693694868995</v>
       </c>
       <c r="D25">
-        <v>11.76509413696804</v>
+        <v>6.616610394786028</v>
       </c>
       <c r="E25">
-        <v>5.250417577110112</v>
+        <v>10.41800906575141</v>
       </c>
       <c r="F25">
-        <v>102.881991569845</v>
+        <v>77.88994847957117</v>
       </c>
       <c r="G25">
-        <v>1.795690683276859</v>
+        <v>3.756385330368898</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>74.26861657844447</v>
+        <v>55.8776093572728</v>
       </c>
       <c r="J25">
-        <v>7.825786753598623</v>
+        <v>11.09416565091478</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>25.1395913014106</v>
+        <v>19.84905939529497</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_110/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_110/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.745093707308749</v>
+        <v>11.1865437813811</v>
       </c>
       <c r="D2">
-        <v>6.124777040331003</v>
+        <v>12.23377831081209</v>
       </c>
       <c r="E2">
-        <v>10.47817040029796</v>
+        <v>5.218980170985181</v>
       </c>
       <c r="F2">
-        <v>75.77093397152859</v>
+        <v>106.8969164018936</v>
       </c>
       <c r="G2">
-        <v>3.774403024172508</v>
+        <v>1.767769353880428</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>54.37071703432033</v>
+        <v>77.21400843636262</v>
       </c>
       <c r="J2">
-        <v>11.11286387404048</v>
+        <v>7.993388863379961</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.99769123883691</v>
+        <v>25.60720851682377</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.662239324252782</v>
+        <v>10.07799644815186</v>
       </c>
       <c r="D3">
-        <v>5.76900483286826</v>
+        <v>10.93561802152964</v>
       </c>
       <c r="E3">
-        <v>10.52228707718997</v>
+        <v>5.311056263342294</v>
       </c>
       <c r="F3">
-        <v>74.37906829206425</v>
+        <v>95.79975688449348</v>
       </c>
       <c r="G3">
-        <v>3.787280141940651</v>
+        <v>1.843528224886791</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>53.38159787535967</v>
+        <v>69.06312779616985</v>
       </c>
       <c r="J3">
-        <v>11.13198291962224</v>
+        <v>7.546205592333378</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40031508502705</v>
+        <v>24.22561817997339</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.615180164468841</v>
+        <v>9.496876604309112</v>
       </c>
       <c r="D4">
-        <v>5.539558445959933</v>
+        <v>10.20445435764302</v>
       </c>
       <c r="E4">
-        <v>10.55103391700284</v>
+        <v>5.369483986761214</v>
       </c>
       <c r="F4">
-        <v>73.54854553398405</v>
+        <v>89.59699031945431</v>
       </c>
       <c r="G4">
-        <v>3.795522470187224</v>
+        <v>1.88403226533468</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>52.79172146937709</v>
+        <v>64.49142198618122</v>
       </c>
       <c r="J4">
-        <v>11.14684874608549</v>
+        <v>7.319747981778614</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.02485520896364</v>
+        <v>23.33595077662918</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.59696423617272</v>
+        <v>9.271098819562701</v>
       </c>
       <c r="D5">
-        <v>5.443309887458183</v>
+        <v>9.914553155014717</v>
       </c>
       <c r="E5">
-        <v>10.56316697648182</v>
+        <v>5.393864389549996</v>
       </c>
       <c r="F5">
-        <v>73.21649748359667</v>
+        <v>87.15203353462219</v>
       </c>
       <c r="G5">
-        <v>3.798966700084902</v>
+        <v>1.89966307201224</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>52.55596770579626</v>
+        <v>62.6854873770865</v>
       </c>
       <c r="J5">
-        <v>11.15368510103598</v>
+        <v>7.235600856263</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86990355188116</v>
+        <v>22.96331756195407</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.593997563737069</v>
+        <v>9.234138905027214</v>
       </c>
       <c r="D6">
-        <v>5.427162660590583</v>
+        <v>9.866743497032422</v>
       </c>
       <c r="E6">
-        <v>10.56520697615934</v>
+        <v>5.39794896678941</v>
       </c>
       <c r="F6">
-        <v>73.16175713676689</v>
+        <v>86.74974353726449</v>
       </c>
       <c r="G6">
-        <v>3.799543799263728</v>
+        <v>1.902217578599201</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>52.51710711100159</v>
+        <v>62.38810565035578</v>
       </c>
       <c r="J6">
-        <v>11.1548670582408</v>
+        <v>7.222045643253168</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.84406337566596</v>
+        <v>22.90084339962177</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.614930605449686</v>
+        <v>9.493793547556644</v>
       </c>
       <c r="D7">
-        <v>5.538271497447022</v>
+        <v>10.20051961193295</v>
       </c>
       <c r="E7">
-        <v>10.55119585147796</v>
+        <v>5.369810394537356</v>
       </c>
       <c r="F7">
-        <v>73.54404107970964</v>
+        <v>89.56374433461568</v>
       </c>
       <c r="G7">
-        <v>3.795568573137277</v>
+        <v>1.884246042636697</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>52.78852297507564</v>
+        <v>64.46688120231627</v>
       </c>
       <c r="J7">
-        <v>11.14693780210613</v>
+        <v>7.318583742500915</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.02277304766463</v>
+        <v>23.33096569062625</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.715735755953538</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D8">
-        <v>6.004399106183196</v>
+        <v>11.76509413696779</v>
       </c>
       <c r="E8">
-        <v>10.49303829095123</v>
+        <v>5.250417577110151</v>
       </c>
       <c r="F8">
-        <v>75.28622669179275</v>
+        <v>102.8819915698443</v>
       </c>
       <c r="G8">
-        <v>3.778773980752447</v>
+        <v>1.795690683276963</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>54.02619363876915</v>
+        <v>74.26861657844391</v>
       </c>
       <c r="J8">
-        <v>11.11880247665376</v>
+        <v>7.825786753598625</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.79364780656866</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.943504903071441</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D9">
-        <v>6.830715326529465</v>
+        <v>11.76509413696779</v>
       </c>
       <c r="E9">
-        <v>10.39209592422991</v>
+        <v>5.250417577110151</v>
       </c>
       <c r="F9">
-        <v>78.87839180131468</v>
+        <v>102.8819915698443</v>
       </c>
       <c r="G9">
-        <v>3.748457367797224</v>
+        <v>1.795690683276963</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>56.5808626569812</v>
+        <v>74.26861657844391</v>
       </c>
       <c r="J9">
-        <v>11.08879105377142</v>
+        <v>7.825786753598625</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.2273683202997</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.12886571465549</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D10">
-        <v>7.384102873869701</v>
+        <v>11.76509413696779</v>
       </c>
       <c r="E10">
-        <v>10.32584071680569</v>
+        <v>5.250417577110151</v>
       </c>
       <c r="F10">
-        <v>81.60393589491733</v>
+        <v>102.8819915698443</v>
       </c>
       <c r="G10">
-        <v>3.727712943164527</v>
+        <v>1.795690683276963</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>58.5209264155304</v>
+        <v>74.26861657844391</v>
       </c>
       <c r="J10">
-        <v>11.08257185777956</v>
+        <v>7.825786753598625</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.22223697909767</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.21700737938564</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D11">
-        <v>7.62424353037199</v>
+        <v>11.76509413696779</v>
       </c>
       <c r="E11">
-        <v>10.29739916912431</v>
+        <v>5.250417577110151</v>
       </c>
       <c r="F11">
-        <v>82.85829445254997</v>
+        <v>102.8819915698443</v>
       </c>
       <c r="G11">
-        <v>3.718592747784306</v>
+        <v>1.795690683276963</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>59.41417038772866</v>
+        <v>74.26861657844391</v>
       </c>
       <c r="J11">
-        <v>11.08328661394532</v>
+        <v>7.825786753598625</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.66018057919901</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.25092376370649</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D12">
-        <v>7.713519218974925</v>
+        <v>11.76509413696779</v>
       </c>
       <c r="E12">
-        <v>10.28687196960488</v>
+        <v>5.250417577110151</v>
       </c>
       <c r="F12">
-        <v>83.33502525232898</v>
+        <v>102.8819915698443</v>
       </c>
       <c r="G12">
-        <v>3.715183415764704</v>
+        <v>1.795690683276963</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>59.75371171721853</v>
+        <v>74.26861657844391</v>
       </c>
       <c r="J12">
-        <v>11.08407565828177</v>
+        <v>7.825786753598625</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.82377585681918</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.24359545973009</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D13">
-        <v>7.694365796143889</v>
+        <v>11.76509413696779</v>
       </c>
       <c r="E13">
-        <v>10.2891284022323</v>
+        <v>5.250417577110151</v>
       </c>
       <c r="F13">
-        <v>83.2322811057181</v>
+        <v>102.8819915698443</v>
       </c>
       <c r="G13">
-        <v>3.715915726828824</v>
+        <v>1.795690683276963</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>59.6805319151813</v>
+        <v>74.26861657844391</v>
       </c>
       <c r="J13">
-        <v>11.08388252751271</v>
+        <v>7.825786753598625</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.78864458690801</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.21978695861495</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D14">
-        <v>7.631621517645357</v>
+        <v>11.76509413696779</v>
       </c>
       <c r="E14">
-        <v>10.29652822697153</v>
+        <v>5.250417577110151</v>
       </c>
       <c r="F14">
-        <v>82.89748261390359</v>
+        <v>102.8819915698443</v>
       </c>
       <c r="G14">
-        <v>3.71831137961703</v>
+        <v>1.795690683276963</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>59.44208020338321</v>
+        <v>74.26861657844391</v>
       </c>
       <c r="J14">
-        <v>11.08334108934003</v>
+        <v>7.825786753598625</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.67368539489599</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.20527344775341</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D15">
-        <v>7.592972880267864</v>
+        <v>11.76509413696779</v>
       </c>
       <c r="E15">
-        <v>10.30109244287018</v>
+        <v>5.250417577110151</v>
       </c>
       <c r="F15">
-        <v>82.69262434288723</v>
+        <v>102.8819915698443</v>
       </c>
       <c r="G15">
-        <v>3.719784516354551</v>
+        <v>1.795690683276963</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>59.29618234928711</v>
+        <v>74.26861657844391</v>
       </c>
       <c r="J15">
-        <v>11.0830772135281</v>
+        <v>7.825786753598625</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.60297336126124</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.12318145754867</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D16">
-        <v>7.368176296239238</v>
+        <v>11.76509413696779</v>
       </c>
       <c r="E16">
-        <v>10.32773350864035</v>
+        <v>5.250417577110151</v>
       </c>
       <c r="F16">
-        <v>81.52222181430437</v>
+        <v>102.8819915698443</v>
       </c>
       <c r="G16">
-        <v>3.728315234998063</v>
+        <v>1.795690683276963</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>58.4627445352206</v>
+        <v>74.26861657844391</v>
       </c>
       <c r="J16">
-        <v>11.08259720683149</v>
+        <v>7.825786753598625</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.19330956972086</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.07379202452421</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D17">
-        <v>7.227304585281777</v>
+        <v>11.76509413696779</v>
       </c>
       <c r="E17">
-        <v>10.34451104346166</v>
+        <v>5.250417577110151</v>
       </c>
       <c r="F17">
-        <v>80.80767460002819</v>
+        <v>102.8819915698443</v>
       </c>
       <c r="G17">
-        <v>3.733628769281608</v>
+        <v>1.795690683276963</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>57.9540167355289</v>
+        <v>74.26861657844391</v>
       </c>
       <c r="J17">
-        <v>11.08321662796131</v>
+        <v>7.825786753598625</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.93814219015166</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.04574476611135</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D18">
-        <v>7.145186572750438</v>
+        <v>11.76509413696779</v>
       </c>
       <c r="E18">
-        <v>10.35432095973908</v>
+        <v>5.250417577110151</v>
       </c>
       <c r="F18">
-        <v>80.39807039886311</v>
+        <v>102.8819915698443</v>
       </c>
       <c r="G18">
-        <v>3.736714845110408</v>
+        <v>1.795690683276963</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>57.66243130605893</v>
+        <v>74.26861657844391</v>
       </c>
       <c r="J18">
-        <v>11.08390594141789</v>
+        <v>7.825786753598625</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.79000725568141</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.03631061855221</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D19">
-        <v>7.117195041741789</v>
+        <v>11.76509413696779</v>
       </c>
       <c r="E19">
-        <v>10.35766993268902</v>
+        <v>5.250417577110151</v>
       </c>
       <c r="F19">
-        <v>80.25963423489361</v>
+        <v>102.8819915698443</v>
       </c>
       <c r="G19">
-        <v>3.73776490452839</v>
+        <v>1.795690683276963</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>57.5638886940142</v>
+        <v>74.26861657844391</v>
       </c>
       <c r="J19">
-        <v>11.08419626508325</v>
+        <v>7.825786753598625</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.73962067985785</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.07901240303133</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D20">
-        <v>7.242413627574952</v>
+        <v>11.76509413696779</v>
       </c>
       <c r="E20">
-        <v>10.34270850373925</v>
+        <v>5.250417577110151</v>
       </c>
       <c r="F20">
-        <v>80.88359868897817</v>
+        <v>102.8819915698443</v>
       </c>
       <c r="G20">
-        <v>3.733060051668449</v>
+        <v>1.795690683276963</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>58.0080678169436</v>
+        <v>74.26861657844391</v>
       </c>
       <c r="J20">
-        <v>11.08311615804416</v>
+        <v>7.825786753598625</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.96544799483449</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.226765548079</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D21">
-        <v>7.650096020461527</v>
+        <v>11.76509413696779</v>
       </c>
       <c r="E21">
-        <v>10.29434813381769</v>
+        <v>5.250417577110151</v>
       </c>
       <c r="F21">
-        <v>82.99577674468534</v>
+        <v>102.8819915698443</v>
       </c>
       <c r="G21">
-        <v>3.717606526414634</v>
+        <v>1.795690683276963</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>59.51208618775472</v>
+        <v>74.26861657844391</v>
       </c>
       <c r="J21">
-        <v>11.08348598370266</v>
+        <v>7.825786753598625</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.70751365554064</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.32646758553822</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D22">
-        <v>7.906867710480276</v>
+        <v>11.76509413696779</v>
       </c>
       <c r="E22">
-        <v>10.26415765420291</v>
+        <v>5.250417577110151</v>
       </c>
       <c r="F22">
-        <v>84.38615542547315</v>
+        <v>102.8819915698443</v>
       </c>
       <c r="G22">
-        <v>3.707764291430614</v>
+        <v>1.795690683276963</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>60.50245742614527</v>
+        <v>74.26861657844391</v>
       </c>
       <c r="J22">
-        <v>11.08675335959428</v>
+        <v>7.825786753598625</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.17935961385674</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.27297126560183</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D23">
-        <v>7.770705604535523</v>
+        <v>11.76509413696779</v>
       </c>
       <c r="E23">
-        <v>10.28014173241119</v>
+        <v>5.250417577110151</v>
       </c>
       <c r="F23">
-        <v>83.64328534425002</v>
+        <v>102.8819915698443</v>
       </c>
       <c r="G23">
-        <v>3.712994132643005</v>
+        <v>1.795690683276963</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>59.97327883111036</v>
+        <v>74.26861657844391</v>
       </c>
       <c r="J23">
-        <v>11.08472972401755</v>
+        <v>7.825786753598625</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.92877110911181</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.07665118710929</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D24">
-        <v>7.235586346631654</v>
+        <v>11.76509413696779</v>
       </c>
       <c r="E24">
-        <v>10.34352292013543</v>
+        <v>5.250417577110151</v>
       </c>
       <c r="F24">
-        <v>80.84926964834652</v>
+        <v>102.8819915698443</v>
       </c>
       <c r="G24">
-        <v>3.733317071459187</v>
+        <v>1.795690683276963</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>57.98362853505486</v>
+        <v>74.26861657844391</v>
       </c>
       <c r="J24">
-        <v>11.08316054331291</v>
+        <v>7.825786753598625</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.95310750188673</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.878693694868995</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D25">
-        <v>6.616610394786028</v>
+        <v>11.76509413696779</v>
       </c>
       <c r="E25">
-        <v>10.41800906575141</v>
+        <v>5.250417577110151</v>
       </c>
       <c r="F25">
-        <v>77.88994847957117</v>
+        <v>102.8819915698443</v>
       </c>
       <c r="G25">
-        <v>3.756385330368898</v>
+        <v>1.795690683276963</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>55.8776093572728</v>
+        <v>74.26861657844391</v>
       </c>
       <c r="J25">
-        <v>11.09416565091478</v>
+        <v>7.825786753598625</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.84905939529497</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O25">
         <v>0</v>
